--- a/threat_computer.xlsx
+++ b/threat_computer.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ourguild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377CEEEB-6349-49D8-9F54-73DC06C99342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3393DB-431B-4D53-A030-7CCE5CBAD15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28425" yWindow="450" windowWidth="20565" windowHeight="19905" activeTab="1" xr2:uid="{B9B35D93-461B-493D-89B0-5919EE53FF28}"/>
+    <workbookView xWindow="26850" yWindow="600" windowWidth="22170" windowHeight="19905" activeTab="5" xr2:uid="{B9B35D93-461B-493D-89B0-5919EE53FF28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="3-6" sheetId="4" r:id="rId4"/>
+    <sheet name="3-6 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="3-6 (3)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
   <si>
     <t>复仇5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +77,60 @@
     <t>防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加仇恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇恨值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +143,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,8 +178,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,144 +502,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B55631-F1EE-4B2F-AA77-E940682BB272}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>87.4</v>
+      </c>
+      <c r="C2">
         <v>315</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>C2*D2+B2*D2</f>
+        <v>3219.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>355</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">B3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3+B3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>260</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>4420</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>571.4</v>
+      </c>
+      <c r="C5">
         <v>250</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7392.5999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>180</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>677.7</v>
+      </c>
+      <c r="C7">
         <v>145</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>25</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>20567.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>175</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>217.20000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>299.3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>897.90000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMPRODUCT(B2:B10, D2:D10)</f>
+        <v>23899.4</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>36714.400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1.49</v>
+      </c>
+      <c r="E12">
+        <f>E11*C12</f>
+        <v>54704.455999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>260</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E20" si="1">C14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>180</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>145</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>175</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>23900</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>23900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E14:E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="E22">
+        <f>E21*C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
-        <f>SUM(D2:D11)</f>
-        <v>36715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>1.49</v>
-      </c>
-      <c r="D13">
-        <f>D12*B13</f>
-        <v>54705.35</v>
+      <c r="E24">
+        <f>E12+E22</f>
+        <v>54704.455999999998</v>
       </c>
     </row>
   </sheetData>
@@ -583,11 +815,392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE8ACB4-3949-43BD-983F-6BB91578E05E}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>315</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2+B2*D2</f>
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3+B3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>478.1</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5096.7000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>527.9</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>13458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>16.2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>299.3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>897.90000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMPRODUCT(B2:B10, D2:D10)</f>
+        <v>15424.800000000001</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>25604.800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1.49</v>
+      </c>
+      <c r="E12">
+        <f>E11*C12</f>
+        <v>38151.152000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <f>C14*D14+B14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>355</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E22" si="1">C15*D15+B15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>912.1</v>
+      </c>
+      <c r="C19">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5285.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23">
+        <v>1.25</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <f>B23*C23*D23</f>
+        <v>13125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>SUMPRODUCT(B14:B23, D14:D23)</f>
+        <v>15099.5</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E14:E23)</f>
+        <v>18449.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="E25">
+        <f>E24*C25</f>
+        <v>14759.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>B11+B24</f>
+        <v>30524.300000000003</v>
+      </c>
+      <c r="E27">
+        <f>E12+E25</f>
+        <v>52910.752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772D9E5E-9C68-4440-BE9E-9610E592A78E}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,11 +1213,11 @@
         <v>315</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>2520</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,7 +1228,7 @@
         <v>355</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
         <v>0</v>
       </c>
     </row>
@@ -627,11 +1240,11 @@
         <v>260</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>4420</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,11 +1255,11 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,11 +1282,11 @@
         <v>145</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3625</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,44 +1301,1304 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7700</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7700</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>23900</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>23900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f>SUM(D2:D11)</f>
-        <v>36715</v>
+        <f>SUM(D2:D9)</f>
+        <v>13175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.49</v>
+      </c>
+      <c r="D11">
+        <f>D10*B11</f>
+        <v>19630.75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>1.49</v>
+        <v>260</v>
       </c>
       <c r="D13">
-        <f>D12*B13</f>
-        <v>54705.35</v>
+        <f t="shared" ref="D13:D18" si="1">B13*C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>145</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>26000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>29300</v>
+      </c>
+      <c r="D19">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <f>D20*B21</f>
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f>D11+D21</f>
+        <v>47470.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95F13B3-651D-4D58-8C6C-529DD629F62D}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>58.7</v>
+      </c>
+      <c r="C2">
+        <v>315</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2+B2*D2</f>
+        <v>1121.0999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3+B3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>406.5</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>421.7</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4533.6000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMPRODUCT(B2:B10, D2:D10)</f>
+        <v>5337.7</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>10522.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1.49</v>
+      </c>
+      <c r="E12">
+        <f>E11*C12</f>
+        <v>15678.823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <f>C14*D14+B14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>355</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E22" si="1">C15*D15+B15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="C19">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1743.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>1100</v>
+      </c>
+      <c r="C23">
+        <v>1.25</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f>B23*C23*D23</f>
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>SUMPRODUCT(B14:B23, D14:D23)</f>
+        <v>6663.6</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E14:E23)</f>
+        <v>8618.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="E25">
+        <f>E24*C25</f>
+        <v>6894.880000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>B11+B24</f>
+        <v>12001.3</v>
+      </c>
+      <c r="E27">
+        <f>E12+E25</f>
+        <v>22573.703000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDDFB89-4082-44C5-B5DF-B7B2AE955873}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>315</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2+B2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3+B3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMPRODUCT(B2:B10, D2:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1.49</v>
+      </c>
+      <c r="E12">
+        <f>E11*C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <f>C14*D14+B14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>355</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E24" si="1">C15*D15+B15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>631</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>960.7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2882.1000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>590.4</v>
+      </c>
+      <c r="C21">
+        <v>145</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5883.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>175</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>519.4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>14023.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>3600</v>
+      </c>
+      <c r="C25">
+        <v>1.25</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <f>B25*C25*D25</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <f>SUMPRODUCT(B14:B25, D14:D25)</f>
+        <v>44491.1</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E14:E25)</f>
+        <v>51051.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="E27">
+        <f>E26*C27</f>
+        <v>40840.880000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <f>B11+B26</f>
+        <v>44491.1</v>
+      </c>
+      <c r="E29">
+        <f>E12+E27</f>
+        <v>40840.880000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E30">
+        <f>E29*C30</f>
+        <v>28588.616000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEA50EA-7FC8-4481-9DF4-DF57C26ABFC7}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>315</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2+B2*D2</f>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">C3*D3+B3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>450</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>480.8</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>381</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>SUMPRODUCT(B2:B10, D2:D10)</f>
+        <v>3821</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1.49</v>
+      </c>
+      <c r="E12">
+        <f>E11*C12</f>
+        <v>9619.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <f>C14*D14+B14*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>355</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E22" si="1">C15*D15+B15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>145</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1.25</v>
+      </c>
+      <c r="E23">
+        <f>B23*C23*D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>SUMPRODUCT(B14:B23, D14:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E14:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="E25">
+        <f>E24*C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>B11+B24</f>
+        <v>3821</v>
+      </c>
+      <c r="E27">
+        <f>E12+E25</f>
+        <v>9619.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>